--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.5594014893596665</v>
+        <v>0.239659236565</v>
       </c>
       <c r="R2">
-        <v>5.034613404236999</v>
+        <v>2.156933129085</v>
       </c>
       <c r="S2">
-        <v>0.01131129464140204</v>
+        <v>0.004728158576348476</v>
       </c>
       <c r="T2">
-        <v>0.01131129464140204</v>
+        <v>0.004728158576348475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.07374361696399998</v>
+        <v>0.029287099828</v>
       </c>
       <c r="R3">
-        <v>0.6636925526759998</v>
+        <v>0.263583898452</v>
       </c>
       <c r="S3">
-        <v>0.001491121842305627</v>
+        <v>0.0005777955993387111</v>
       </c>
       <c r="T3">
-        <v>0.001491121842305627</v>
+        <v>0.0005777955993387111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>12.29749287878967</v>
+        <v>0.008162754387666667</v>
       </c>
       <c r="R4">
-        <v>110.677435909107</v>
+        <v>0.073464789489</v>
       </c>
       <c r="S4">
-        <v>0.2486596263119685</v>
+        <v>0.0001610403075543666</v>
       </c>
       <c r="T4">
-        <v>0.2486596263119685</v>
+        <v>0.0001610403075543666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.009431199179666665</v>
+        <v>7.304812875973667</v>
       </c>
       <c r="R5">
-        <v>0.08488079261699999</v>
+        <v>65.743315883763</v>
       </c>
       <c r="S5">
-        <v>0.0001907021607416023</v>
+        <v>0.1441142604941422</v>
       </c>
       <c r="T5">
-        <v>0.0001907021607416024</v>
+        <v>0.1441142604941422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.003400666666667</v>
+        <v>0.265349</v>
       </c>
       <c r="H6">
-        <v>3.010202</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I6">
-        <v>0.3929471631183917</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J6">
-        <v>0.3929471631183917</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>0.8401028941037777</v>
+        <v>0.01456482971066667</v>
       </c>
       <c r="R6">
-        <v>7.560926046933998</v>
+        <v>0.131083467396</v>
       </c>
       <c r="S6">
-        <v>0.01698717566015039</v>
+        <v>0.0002873447545630743</v>
       </c>
       <c r="T6">
-        <v>0.01698717566015039</v>
+        <v>0.0002873447545630743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.1107473383813333</v>
+        <v>0.9062564311233333</v>
       </c>
       <c r="R7">
-        <v>0.9967260454319997</v>
+        <v>8.156307880109999</v>
       </c>
       <c r="S7">
-        <v>0.002239350089353971</v>
+        <v>0.01787923627981932</v>
       </c>
       <c r="T7">
-        <v>0.002239350089353972</v>
+        <v>0.01787923627981932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>18.46823713236378</v>
+        <v>0.1107473383813333</v>
       </c>
       <c r="R8">
-        <v>166.214134191274</v>
+        <v>0.9967260454319997</v>
       </c>
       <c r="S8">
-        <v>0.3734342429988362</v>
+        <v>0.002184897962960211</v>
       </c>
       <c r="T8">
-        <v>0.3734342429988362</v>
+        <v>0.00218489796296021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,60 +992,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.01416366934377778</v>
+        <v>0.03086694577488889</v>
       </c>
       <c r="R9">
-        <v>0.127473024094</v>
+        <v>0.277802511974</v>
       </c>
       <c r="S9">
-        <v>0.0002863943700511985</v>
+        <v>0.0006089638625367212</v>
       </c>
       <c r="T9">
-        <v>0.0002863943700511985</v>
+        <v>0.0006089638625367211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02002233333333333</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H10">
-        <v>0.060067</v>
+        <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.007841054270455084</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J10">
-        <v>0.007841054270455085</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8372556666666666</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N10">
-        <v>2.511767</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q10">
-        <v>0.01676381204322222</v>
+        <v>27.62269354558422</v>
       </c>
       <c r="R10">
-        <v>0.150874308389</v>
+        <v>248.604241910258</v>
       </c>
       <c r="S10">
-        <v>0.0003389701689050282</v>
+        <v>0.5449590729793441</v>
       </c>
       <c r="T10">
-        <v>0.0003389701689050282</v>
+        <v>0.5449590729793439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02002233333333333</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H11">
-        <v>0.060067</v>
+        <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.007841054270455084</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J11">
-        <v>0.007841054270455085</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.110372</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N11">
-        <v>0.331116</v>
+        <v>0.164668</v>
       </c>
       <c r="O11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q11">
-        <v>0.002209904974666666</v>
+        <v>0.05507599365955556</v>
       </c>
       <c r="R11">
-        <v>0.019889144772</v>
+        <v>0.495683942936</v>
       </c>
       <c r="S11">
-        <v>4.4685054962167E-05</v>
+        <v>0.001086576238432248</v>
       </c>
       <c r="T11">
-        <v>4.4685054962167E-05</v>
+        <v>0.001086576238432247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.40564566666667</v>
+        <v>0.903185</v>
       </c>
       <c r="N12">
-        <v>55.216937</v>
+        <v>2.709555</v>
       </c>
       <c r="O12">
-        <v>0.9503421275147966</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P12">
-        <v>0.9503421275147965</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q12">
-        <v>0.3685239727532222</v>
+        <v>0.4326882358266667</v>
       </c>
       <c r="R12">
-        <v>3.316715754779</v>
+        <v>3.89419412244</v>
       </c>
       <c r="S12">
-        <v>0.007451684197343266</v>
+        <v>0.008536364474957684</v>
       </c>
       <c r="T12">
-        <v>0.007451684197343267</v>
+        <v>0.008536364474957682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01411566666666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N13">
-        <v>0.042347</v>
+        <v>0.331116</v>
       </c>
       <c r="O13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q13">
-        <v>0.0002826285832222222</v>
+        <v>0.05287584045866665</v>
       </c>
       <c r="R13">
-        <v>0.002543657249</v>
+        <v>0.4758825641279999</v>
       </c>
       <c r="S13">
-        <v>5.714849244623896E-06</v>
+        <v>0.00104317013660549</v>
       </c>
       <c r="T13">
-        <v>5.714849244623898E-06</v>
+        <v>0.001043170136605489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H14">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I14">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J14">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8372556666666666</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N14">
-        <v>2.511767</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q14">
-        <v>0.7216856388887778</v>
+        <v>0.01473729052177778</v>
       </c>
       <c r="R14">
-        <v>6.495170749999</v>
+        <v>0.132635614696</v>
       </c>
       <c r="S14">
-        <v>0.01459273715785716</v>
+        <v>0.0002907471774148964</v>
       </c>
       <c r="T14">
-        <v>0.01459273715785716</v>
+        <v>0.0002907471774148964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H15">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I15">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J15">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.110372</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N15">
-        <v>0.331116</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q15">
-        <v>0.09513687456133332</v>
+        <v>13.18833624629244</v>
       </c>
       <c r="R15">
-        <v>0.8562318710519999</v>
+        <v>118.695026216632</v>
       </c>
       <c r="S15">
-        <v>0.001923701026711885</v>
+        <v>0.260188365883252</v>
       </c>
       <c r="T15">
-        <v>0.001923701026711885</v>
+        <v>0.260188365883252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H16">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I16">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J16">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>18.40564566666667</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N16">
-        <v>55.216937</v>
+        <v>0.164668</v>
       </c>
       <c r="O16">
-        <v>0.9503421275147966</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P16">
-        <v>0.9503421275147965</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q16">
-        <v>15.86503463749878</v>
+        <v>0.02629579632711111</v>
       </c>
       <c r="R16">
-        <v>142.785311737489</v>
+        <v>0.236662166944</v>
       </c>
       <c r="S16">
-        <v>0.3207965740066486</v>
+        <v>0.0005187811523893524</v>
       </c>
       <c r="T16">
-        <v>0.3207965740066486</v>
+        <v>0.0005187811523893524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.068176</v>
+      </c>
+      <c r="I17">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J17">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.903185</v>
+      </c>
+      <c r="N17">
+        <v>2.709555</v>
+      </c>
+      <c r="O17">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P17">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q17">
+        <v>0.02052518018666667</v>
+      </c>
+      <c r="R17">
+        <v>0.18472662168</v>
+      </c>
+      <c r="S17">
+        <v>0.0004049345567549826</v>
+      </c>
+      <c r="T17">
+        <v>0.0004049345567549826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.068176</v>
+      </c>
+      <c r="I18">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J18">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.110372</v>
+      </c>
+      <c r="N18">
+        <v>0.331116</v>
+      </c>
+      <c r="O18">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P18">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q18">
+        <v>0.002508240490666666</v>
+      </c>
+      <c r="R18">
+        <v>0.022574164416</v>
+      </c>
+      <c r="S18">
+        <v>4.94842550509153E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.948425505091529E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.8619656666666667</v>
-      </c>
-      <c r="H17">
-        <v>2.585897</v>
-      </c>
-      <c r="I17">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="J17">
-        <v>0.3375590376547354</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M17">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.042347</v>
-      </c>
-      <c r="O17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q17">
-        <v>0.01216722002877778</v>
-      </c>
-      <c r="R17">
-        <v>0.109504980259</v>
-      </c>
-      <c r="S17">
-        <v>0.0002460254635178251</v>
-      </c>
-      <c r="T17">
-        <v>0.0002460254635178251</v>
+      <c r="G19">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.068176</v>
+      </c>
+      <c r="I19">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J19">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q19">
+        <v>0.0006990842791111111</v>
+      </c>
+      <c r="R19">
+        <v>0.006291758511999999</v>
+      </c>
+      <c r="S19">
+        <v>1.379200475327022E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.379200475327022E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.068176</v>
+      </c>
+      <c r="I20">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J20">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N20">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P20">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q20">
+        <v>0.6256074360337779</v>
+      </c>
+      <c r="R20">
+        <v>5.630466924304001</v>
+      </c>
+      <c r="S20">
+        <v>0.01234240418398492</v>
+      </c>
+      <c r="T20">
+        <v>0.01234240418398491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.068176</v>
+      </c>
+      <c r="I21">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J21">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.164668</v>
+      </c>
+      <c r="O21">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P21">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q21">
+        <v>0.001247378396444444</v>
+      </c>
+      <c r="R21">
+        <v>0.011226405568</v>
+      </c>
+      <c r="S21">
+        <v>2.460911979706242E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.460911979706242E-05</v>
       </c>
     </row>
   </sheetData>
